--- a/data/georgia_census/adjara/qobuleti/population_total.xlsx
+++ b/data/georgia_census/adjara/qobuleti/population_total.xlsx
@@ -1323,13 +1323,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BBB70D5-253E-4CFB-97F2-B7FC4F323B0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA8D6301-00CD-472E-83A9-DEF21C3A4F41}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20837739-A3A7-45A3-A732-6F7A522200FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD570C3-C31C-4E98-89CC-F27F8DBD87A9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02651790-48F7-4CFE-A433-C1B4CF1AFFE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD1B084E-90C8-4776-8D58-3E0B1817A79D}"/>
 </file>